--- a/inputs/AddictO_Human-being_Defs.xlsx
+++ b/inputs/AddictO_Human-being_Defs.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U763"/>
+  <dimension ref="A1:U764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37050,367 +37050,345 @@
       <c r="U707" s="3" t="inlineStr"/>
     </row>
     <row r="708">
-      <c r="A708" s="3" t="inlineStr"/>
-      <c r="B708" s="3" t="inlineStr">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>BCIO:123</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="inlineStr"/>
+      <c r="E708" t="inlineStr"/>
+      <c r="F708" t="inlineStr"/>
+      <c r="G708" t="inlineStr"/>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
+      <c r="L708" t="inlineStr"/>
+      <c r="M708" t="inlineStr"/>
+      <c r="N708" t="inlineStr"/>
+      <c r="O708" t="inlineStr"/>
+      <c r="P708" t="inlineStr"/>
+      <c r="Q708" t="inlineStr"/>
+      <c r="R708" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="S708" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T708" t="inlineStr"/>
+      <c r="U708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="3" t="inlineStr"/>
+      <c r="B709" s="3" t="inlineStr">
         <is>
           <t>tested positive for drugs</t>
         </is>
       </c>
-      <c r="C708" s="3" t="inlineStr"/>
-      <c r="D708" s="3" t="inlineStr"/>
-      <c r="E708" s="3" t="inlineStr"/>
-      <c r="F708" s="3" t="inlineStr"/>
-      <c r="G708" s="3" t="inlineStr"/>
-      <c r="H708" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I708" s="3" t="inlineStr"/>
-      <c r="J708" s="3" t="inlineStr"/>
-      <c r="K708" s="3" t="inlineStr"/>
-      <c r="L708" s="3" t="inlineStr"/>
-      <c r="M708" s="3" t="inlineStr"/>
-      <c r="N708" s="3" t="inlineStr"/>
-      <c r="O708" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P708" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q708" s="3" t="inlineStr"/>
-      <c r="R708" s="3" t="inlineStr"/>
-      <c r="S708" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T708" s="3" t="inlineStr"/>
-      <c r="U708" s="3" t="inlineStr"/>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
+      <c r="C709" s="3" t="inlineStr"/>
+      <c r="D709" s="3" t="inlineStr"/>
+      <c r="E709" s="3" t="inlineStr"/>
+      <c r="F709" s="3" t="inlineStr"/>
+      <c r="G709" s="3" t="inlineStr"/>
+      <c r="H709" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I709" s="3" t="inlineStr"/>
+      <c r="J709" s="3" t="inlineStr"/>
+      <c r="K709" s="3" t="inlineStr"/>
+      <c r="L709" s="3" t="inlineStr"/>
+      <c r="M709" s="3" t="inlineStr"/>
+      <c r="N709" s="3" t="inlineStr"/>
+      <c r="O709" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P709" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q709" s="3" t="inlineStr"/>
+      <c r="R709" s="3" t="inlineStr"/>
+      <c r="S709" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T709" s="3" t="inlineStr"/>
+      <c r="U709" s="3" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
         <is>
           <t>NCIT:C12459</t>
         </is>
       </c>
-      <c r="B709" t="inlineStr">
+      <c r="B710" t="inlineStr">
         <is>
           <t>thalamus</t>
         </is>
       </c>
-      <c r="C709" t="inlineStr">
+      <c r="C710" t="inlineStr">
         <is>
           <t>An ovoid mass composed predominantly of gray substance and associated laminae of white substance. The thalamus is divided into anterior, medial, and lateral parts. The function of the thalamus is to relay sensory impulses and cerebellar and basal ganglia projections to the cerebral cortex. The thalamus is positioned within the posterior part of the diencephalon forming most of each lateral wall of the third ventricle.</t>
         </is>
       </c>
-      <c r="D709" t="inlineStr"/>
-      <c r="E709" t="inlineStr"/>
-      <c r="F709" t="inlineStr">
+      <c r="D710" t="inlineStr"/>
+      <c r="E710" t="inlineStr"/>
+      <c r="F710" t="inlineStr">
         <is>
           <t>brain part</t>
         </is>
       </c>
-      <c r="G709" t="inlineStr"/>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I709" t="inlineStr">
+      <c r="G710" t="inlineStr"/>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
         <is>
           <t>NCIT:C12459</t>
         </is>
       </c>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
-      <c r="M709" t="inlineStr"/>
-      <c r="N709" t="inlineStr"/>
-      <c r="O709" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P709" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q709" t="inlineStr"/>
-      <c r="R709" t="inlineStr">
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
+      <c r="L710" t="inlineStr"/>
+      <c r="M710" t="inlineStr"/>
+      <c r="N710" t="inlineStr"/>
+      <c r="O710" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P710" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q710" t="inlineStr"/>
+      <c r="R710" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="S709" t="inlineStr">
+      <c r="S710" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T709" t="inlineStr"/>
-      <c r="U709" t="inlineStr"/>
-    </row>
-    <row r="710">
-      <c r="A710" s="3" t="inlineStr">
+      <c r="T710" t="inlineStr"/>
+      <c r="U710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001045</t>
         </is>
       </c>
-      <c r="B710" s="3" t="inlineStr">
+      <c r="B711" s="3" t="inlineStr">
         <is>
           <t>third trimester</t>
         </is>
       </c>
-      <c r="C710" s="3" t="inlineStr">
+      <c r="C711" s="3" t="inlineStr">
         <is>
           <t>The trimester that ranges from the 28th week of pregnancy until delivery; the last trimester of gestation.</t>
         </is>
       </c>
-      <c r="D710" s="3" t="inlineStr"/>
-      <c r="E710" s="3" t="inlineStr"/>
-      <c r="F710" s="3" t="inlineStr">
+      <c r="D711" s="3" t="inlineStr"/>
+      <c r="E711" s="3" t="inlineStr"/>
+      <c r="F711" s="3" t="inlineStr">
         <is>
           <t>trimester</t>
         </is>
       </c>
-      <c r="G710" s="3" t="inlineStr"/>
-      <c r="H710" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I710" s="3" t="inlineStr"/>
-      <c r="J710" s="3" t="inlineStr"/>
-      <c r="K710" s="3" t="inlineStr"/>
-      <c r="L710" s="3" t="inlineStr"/>
-      <c r="M710" s="3" t="inlineStr"/>
-      <c r="N710" s="3" t="inlineStr"/>
-      <c r="O710" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P710" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q710" s="3" t="inlineStr"/>
-      <c r="R710" s="3" t="inlineStr">
+      <c r="G711" s="3" t="inlineStr"/>
+      <c r="H711" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I711" s="3" t="inlineStr"/>
+      <c r="J711" s="3" t="inlineStr"/>
+      <c r="K711" s="3" t="inlineStr"/>
+      <c r="L711" s="3" t="inlineStr"/>
+      <c r="M711" s="3" t="inlineStr"/>
+      <c r="N711" s="3" t="inlineStr"/>
+      <c r="O711" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P711" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q711" s="3" t="inlineStr"/>
+      <c r="R711" s="3" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="S710" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T710" s="3" t="inlineStr"/>
-      <c r="U710" s="3" t="inlineStr"/>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
+      <c r="S711" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T711" s="3" t="inlineStr"/>
+      <c r="U711" s="3" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
         <is>
           <t>DOID:0060903</t>
         </is>
       </c>
-      <c r="B711" t="inlineStr">
+      <c r="B712" t="inlineStr">
         <is>
           <t>thrombosis</t>
         </is>
       </c>
-      <c r="C711" t="inlineStr">
+      <c r="C712" t="inlineStr">
         <is>
           <t xml:space="preserve">A vascular disease caused by the formation of a blood clot inside a blood vessel, obstructing the flow of blood through the circulatory system. </t>
         </is>
       </c>
-      <c r="D711" t="inlineStr"/>
-      <c r="E711" t="inlineStr"/>
-      <c r="F711" t="inlineStr">
+      <c r="D712" t="inlineStr"/>
+      <c r="E712" t="inlineStr"/>
+      <c r="F712" t="inlineStr">
         <is>
           <t>vascular disease</t>
         </is>
       </c>
-      <c r="G711" t="inlineStr"/>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I711" t="inlineStr">
+      <c r="G712" t="inlineStr"/>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
         <is>
           <t>DOID:0060903</t>
         </is>
       </c>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
-      <c r="M711" t="inlineStr"/>
-      <c r="N711" t="inlineStr"/>
-      <c r="O711" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P711" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q711" t="inlineStr"/>
-      <c r="R711" t="inlineStr">
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
+      <c r="L712" t="inlineStr"/>
+      <c r="M712" t="inlineStr"/>
+      <c r="N712" t="inlineStr"/>
+      <c r="O712" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P712" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q712" t="inlineStr"/>
+      <c r="R712" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="S711" t="inlineStr">
+      <c r="S712" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T711" t="inlineStr"/>
-      <c r="U711" t="inlineStr"/>
-    </row>
-    <row r="712">
-      <c r="A712" s="3" t="inlineStr"/>
-      <c r="B712" s="3" t="inlineStr">
+      <c r="T712" t="inlineStr"/>
+      <c r="U712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="3" t="inlineStr"/>
+      <c r="B713" s="3" t="inlineStr">
         <is>
           <t>time since first injection drug use</t>
         </is>
       </c>
-      <c r="C712" s="3" t="inlineStr"/>
-      <c r="D712" s="3" t="inlineStr"/>
-      <c r="E712" s="3" t="inlineStr"/>
-      <c r="F712" s="3" t="inlineStr"/>
-      <c r="G712" s="3" t="inlineStr"/>
-      <c r="H712" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I712" s="3" t="inlineStr"/>
-      <c r="J712" s="3" t="inlineStr"/>
-      <c r="K712" s="3" t="inlineStr"/>
-      <c r="L712" s="3" t="inlineStr"/>
-      <c r="M712" s="3" t="inlineStr"/>
-      <c r="N712" s="3" t="inlineStr"/>
-      <c r="O712" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P712" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q712" s="3" t="inlineStr"/>
-      <c r="R712" s="3" t="inlineStr"/>
-      <c r="S712" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T712" s="3" t="inlineStr"/>
-      <c r="U712" s="3" t="inlineStr"/>
-    </row>
-    <row r="713">
-      <c r="A713" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001215</t>
-        </is>
-      </c>
-      <c r="B713" s="2" t="inlineStr">
-        <is>
-          <t>tobacco addiction</t>
-        </is>
-      </c>
-      <c r="C713" s="2" t="inlineStr">
-        <is>
-          <t>Addiction to a tobacco-containing product.</t>
-        </is>
-      </c>
-      <c r="D713" s="2" t="inlineStr"/>
-      <c r="E713" s="2" t="inlineStr"/>
-      <c r="F713" s="2" t="inlineStr">
-        <is>
-          <t>addiction</t>
-        </is>
-      </c>
-      <c r="G713" s="2" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="H713" s="2" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I713" s="2" t="inlineStr"/>
-      <c r="J713" s="2" t="inlineStr"/>
-      <c r="K713" s="2" t="inlineStr"/>
-      <c r="L713" s="2" t="inlineStr"/>
-      <c r="M713" s="2" t="inlineStr"/>
-      <c r="N713" s="2" t="inlineStr"/>
-      <c r="O713" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="P713" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q713" s="2" t="inlineStr">
-        <is>
-          <t>Strength of the disposition has to be defined.</t>
-        </is>
-      </c>
-      <c r="R713" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="S713" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T713" s="2" t="inlineStr"/>
-      <c r="U713" s="2" t="inlineStr"/>
+      <c r="C713" s="3" t="inlineStr"/>
+      <c r="D713" s="3" t="inlineStr"/>
+      <c r="E713" s="3" t="inlineStr"/>
+      <c r="F713" s="3" t="inlineStr"/>
+      <c r="G713" s="3" t="inlineStr"/>
+      <c r="H713" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I713" s="3" t="inlineStr"/>
+      <c r="J713" s="3" t="inlineStr"/>
+      <c r="K713" s="3" t="inlineStr"/>
+      <c r="L713" s="3" t="inlineStr"/>
+      <c r="M713" s="3" t="inlineStr"/>
+      <c r="N713" s="3" t="inlineStr"/>
+      <c r="O713" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P713" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q713" s="3" t="inlineStr"/>
+      <c r="R713" s="3" t="inlineStr"/>
+      <c r="S713" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T713" s="3" t="inlineStr"/>
+      <c r="U713" s="3" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000405</t>
+          <t>ADDICTO:0001215</t>
         </is>
       </c>
       <c r="B714" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoker</t>
+          <t>tobacco addiction</t>
         </is>
       </c>
       <c r="C714" s="2" t="inlineStr">
         <is>
-          <t>A tobacco user who engages in tobacco smoking.</t>
+          <t>Addiction to a tobacco-containing product.</t>
         </is>
       </c>
       <c r="D714" s="2" t="inlineStr"/>
       <c r="E714" s="2" t="inlineStr"/>
       <c r="F714" s="2" t="inlineStr">
         <is>
-          <t>tobacco user</t>
+          <t>addiction</t>
         </is>
       </c>
       <c r="G714" s="2" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="H714" s="2" t="inlineStr">
@@ -37419,37 +37397,27 @@
         </is>
       </c>
       <c r="I714" s="2" t="inlineStr"/>
-      <c r="J714" s="2" t="inlineStr">
-        <is>
-          <t>'tobacco user' and 'participates in' some 'tobacco smoking'</t>
-        </is>
-      </c>
-      <c r="K714" s="2" t="inlineStr">
-        <is>
-          <t>smoker;current smoker;current tobacco smoker</t>
-        </is>
-      </c>
+      <c r="J714" s="2" t="inlineStr"/>
+      <c r="K714" s="2" t="inlineStr"/>
       <c r="L714" s="2" t="inlineStr"/>
-      <c r="M714" s="2" t="inlineStr">
-        <is>
-          <t>This applies to the current time period and the behaviour pattern of tobacco smoking. The time period and the amount of smoking needs to be operationalised.</t>
-        </is>
-      </c>
+      <c r="M714" s="2" t="inlineStr"/>
       <c r="N714" s="2" t="inlineStr"/>
-      <c r="O714" s="2" t="n">
-        <v>1</v>
+      <c r="O714" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="P714" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q714" s="2" t="inlineStr">
         <is>
-          <t>What counts as current and how much smoking counts is subject to differing interpretations.</t>
+          <t>Strength of the disposition has to be defined.</t>
         </is>
       </c>
       <c r="R714" s="2" t="inlineStr">
         <is>
-          <t>All; SC; RW; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="S714" s="2" t="inlineStr">
@@ -37463,43 +37431,51 @@
     <row r="715">
       <c r="A715" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000773</t>
+          <t>ADDICTO:0000405</t>
         </is>
       </c>
       <c r="B715" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoker and ex-e-cigarette user</t>
+          <t>tobacco smoker</t>
         </is>
       </c>
       <c r="C715" s="2" t="inlineStr">
         <is>
-          <t>A tobacco smoker who is an ex-e-cigarette user</t>
+          <t>A tobacco user who engages in tobacco smoking.</t>
         </is>
       </c>
       <c r="D715" s="2" t="inlineStr"/>
       <c r="E715" s="2" t="inlineStr"/>
       <c r="F715" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoker</t>
-        </is>
-      </c>
-      <c r="G715" s="2" t="inlineStr"/>
+          <t>tobacco user</t>
+        </is>
+      </c>
+      <c r="G715" s="2" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
       <c r="H715" s="2" t="inlineStr">
         <is>
           <t>Human being</t>
         </is>
       </c>
       <c r="I715" s="2" t="inlineStr"/>
-      <c r="J715" s="2" t="inlineStr"/>
+      <c r="J715" s="2" t="inlineStr">
+        <is>
+          <t>'tobacco user' and 'participates in' some 'tobacco smoking'</t>
+        </is>
+      </c>
       <c r="K715" s="2" t="inlineStr">
         <is>
-          <t>Smoker; current smoker; ex e-cigarette user; ex-vaper</t>
+          <t>smoker;current smoker;current tobacco smoker</t>
         </is>
       </c>
       <c r="L715" s="2" t="inlineStr"/>
       <c r="M715" s="2" t="inlineStr">
         <is>
-          <t>This class requires specification of the time period since e-cigarette use stopped. E-cigarette use may have been with or without tobacco smoking.</t>
+          <t>This applies to the current time period and the behaviour pattern of tobacco smoking. The time period and the amount of smoking needs to be operationalised.</t>
         </is>
       </c>
       <c r="N715" s="2" t="inlineStr"/>
@@ -37509,286 +37485,292 @@
       <c r="P715" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q715" s="2" t="inlineStr"/>
+      <c r="Q715" s="2" t="inlineStr">
+        <is>
+          <t>What counts as current and how much smoking counts is subject to differing interpretations.</t>
+        </is>
+      </c>
       <c r="R715" s="2" t="inlineStr">
         <is>
+          <t>All; SC; RW; JH</t>
+        </is>
+      </c>
+      <c r="S715" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T715" s="2" t="inlineStr"/>
+      <c r="U715" s="2" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000773</t>
+        </is>
+      </c>
+      <c r="B716" s="2" t="inlineStr">
+        <is>
+          <t>tobacco smoker and ex-e-cigarette user</t>
+        </is>
+      </c>
+      <c r="C716" s="2" t="inlineStr">
+        <is>
+          <t>A tobacco smoker who is an ex-e-cigarette user</t>
+        </is>
+      </c>
+      <c r="D716" s="2" t="inlineStr"/>
+      <c r="E716" s="2" t="inlineStr"/>
+      <c r="F716" s="2" t="inlineStr">
+        <is>
+          <t>tobacco smoker</t>
+        </is>
+      </c>
+      <c r="G716" s="2" t="inlineStr"/>
+      <c r="H716" s="2" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I716" s="2" t="inlineStr"/>
+      <c r="J716" s="2" t="inlineStr"/>
+      <c r="K716" s="2" t="inlineStr">
+        <is>
+          <t>Smoker; current smoker; ex e-cigarette user; ex-vaper</t>
+        </is>
+      </c>
+      <c r="L716" s="2" t="inlineStr"/>
+      <c r="M716" s="2" t="inlineStr">
+        <is>
+          <t>This class requires specification of the time period since e-cigarette use stopped. E-cigarette use may have been with or without tobacco smoking.</t>
+        </is>
+      </c>
+      <c r="N716" s="2" t="inlineStr"/>
+      <c r="O716" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P716" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q716" s="2" t="inlineStr"/>
+      <c r="R716" s="2" t="inlineStr">
+        <is>
           <t>SC; RW</t>
         </is>
       </c>
-      <c r="S715" s="2" t="inlineStr">
+      <c r="S716" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T715" s="2" t="inlineStr">
+      <c r="T716" s="2" t="inlineStr">
         <is>
           <t>JH; RW; CN</t>
         </is>
       </c>
-      <c r="U715" s="2" t="inlineStr"/>
-    </row>
-    <row r="716">
-      <c r="A716" s="4" t="inlineStr">
+      <c r="U716" s="2" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000406</t>
         </is>
       </c>
-      <c r="B716" s="4" t="inlineStr">
+      <c r="B717" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">tobacco smoker identity </t>
         </is>
       </c>
-      <c r="C716" s="4" t="inlineStr">
+      <c r="C717" s="4" t="inlineStr">
         <is>
           <t>A self-identity in which a person represents themselves as a tobacco smoker.</t>
         </is>
       </c>
-      <c r="D716" s="4" t="inlineStr"/>
-      <c r="E716" s="4" t="inlineStr"/>
-      <c r="F716" s="4" t="inlineStr">
+      <c r="D717" s="4" t="inlineStr"/>
+      <c r="E717" s="4" t="inlineStr"/>
+      <c r="F717" s="4" t="inlineStr">
         <is>
           <t>self-identity</t>
         </is>
       </c>
-      <c r="G716" s="4" t="inlineStr">
+      <c r="G717" s="4" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="H716" s="4" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I716" s="4" t="inlineStr"/>
-      <c r="J716" s="4" t="inlineStr"/>
-      <c r="K716" s="4" t="inlineStr"/>
-      <c r="L716" s="4" t="inlineStr"/>
-      <c r="M716" s="4" t="inlineStr"/>
-      <c r="N716" s="4" t="inlineStr"/>
-      <c r="O716" s="4" t="inlineStr">
+      <c r="H717" s="4" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I717" s="4" t="inlineStr"/>
+      <c r="J717" s="4" t="inlineStr"/>
+      <c r="K717" s="4" t="inlineStr"/>
+      <c r="L717" s="4" t="inlineStr"/>
+      <c r="M717" s="4" t="inlineStr"/>
+      <c r="N717" s="4" t="inlineStr"/>
+      <c r="O717" s="4" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="P716" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q716" s="4" t="inlineStr"/>
-      <c r="R716" s="4" t="inlineStr">
+      <c r="P717" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q717" s="4" t="inlineStr"/>
+      <c r="R717" s="4" t="inlineStr">
         <is>
           <t>All; RW; KS</t>
         </is>
       </c>
-      <c r="S716" s="4" t="inlineStr">
+      <c r="S717" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T716" s="4" t="inlineStr"/>
-      <c r="U716" s="4" t="inlineStr"/>
-    </row>
-    <row r="717">
-      <c r="A717" s="3" t="inlineStr"/>
-      <c r="B717" s="3" t="inlineStr">
+      <c r="T717" s="4" t="inlineStr"/>
+      <c r="U717" s="4" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="3" t="inlineStr"/>
+      <c r="B718" s="3" t="inlineStr">
         <is>
           <t>tobacco use cue</t>
         </is>
       </c>
-      <c r="C717" s="3" t="inlineStr">
+      <c r="C718" s="3" t="inlineStr">
         <is>
           <t>Perception of an entity that momentarily increases motivation to use a tobacco product.</t>
         </is>
       </c>
-      <c r="D717" s="3" t="inlineStr"/>
-      <c r="E717" s="3" t="inlineStr"/>
-      <c r="F717" s="3" t="inlineStr"/>
-      <c r="G717" s="3" t="inlineStr"/>
-      <c r="H717" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I717" s="3" t="inlineStr"/>
-      <c r="J717" s="3" t="inlineStr"/>
-      <c r="K717" s="3" t="inlineStr"/>
-      <c r="L717" s="3" t="inlineStr"/>
-      <c r="M717" s="3" t="inlineStr"/>
-      <c r="N717" s="3" t="inlineStr"/>
-      <c r="O717" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P717" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q717" s="3" t="inlineStr"/>
-      <c r="R717" s="3" t="inlineStr"/>
-      <c r="S717" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T717" s="3" t="inlineStr"/>
-      <c r="U717" s="3" t="inlineStr"/>
-    </row>
-    <row r="718">
-      <c r="A718" s="5" t="inlineStr">
+      <c r="D718" s="3" t="inlineStr"/>
+      <c r="E718" s="3" t="inlineStr"/>
+      <c r="F718" s="3" t="inlineStr"/>
+      <c r="G718" s="3" t="inlineStr"/>
+      <c r="H718" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I718" s="3" t="inlineStr"/>
+      <c r="J718" s="3" t="inlineStr"/>
+      <c r="K718" s="3" t="inlineStr"/>
+      <c r="L718" s="3" t="inlineStr"/>
+      <c r="M718" s="3" t="inlineStr"/>
+      <c r="N718" s="3" t="inlineStr"/>
+      <c r="O718" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P718" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q718" s="3" t="inlineStr"/>
+      <c r="R718" s="3" t="inlineStr"/>
+      <c r="S718" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T718" s="3" t="inlineStr"/>
+      <c r="U718" s="3" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0001074</t>
         </is>
       </c>
-      <c r="B718" s="5" t="inlineStr">
+      <c r="B719" s="5" t="inlineStr">
         <is>
           <t>tobacco use disorder</t>
         </is>
       </c>
-      <c r="C718" s="5" t="inlineStr">
+      <c r="C719" s="5" t="inlineStr">
         <is>
           <t>An addictive disorder that involves addiction to tobacco use.</t>
         </is>
       </c>
-      <c r="D718" s="5" t="inlineStr"/>
-      <c r="E718" s="5" t="inlineStr"/>
-      <c r="F718" s="5" t="inlineStr">
+      <c r="D719" s="5" t="inlineStr"/>
+      <c r="E719" s="5" t="inlineStr"/>
+      <c r="F719" s="5" t="inlineStr">
         <is>
           <t>substance use disorder</t>
         </is>
       </c>
-      <c r="G718" s="5" t="inlineStr">
+      <c r="G719" s="5" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="H718" s="5" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I718" s="5" t="inlineStr"/>
-      <c r="J718" s="5" t="inlineStr"/>
-      <c r="K718" s="5" t="inlineStr"/>
-      <c r="L718" s="5" t="inlineStr"/>
-      <c r="M718" s="5" t="inlineStr"/>
-      <c r="N718" s="5" t="inlineStr"/>
-      <c r="O718" s="5" t="inlineStr">
+      <c r="H719" s="5" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I719" s="5" t="inlineStr"/>
+      <c r="J719" s="5" t="inlineStr"/>
+      <c r="K719" s="5" t="inlineStr"/>
+      <c r="L719" s="5" t="inlineStr"/>
+      <c r="M719" s="5" t="inlineStr"/>
+      <c r="N719" s="5" t="inlineStr"/>
+      <c r="O719" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="P718" s="5" t="inlineStr">
+      <c r="P719" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="Q718" s="5" t="inlineStr"/>
-      <c r="R718" s="5" t="inlineStr">
+      <c r="Q719" s="5" t="inlineStr"/>
+      <c r="R719" s="5" t="inlineStr">
         <is>
           <t>KS; RW</t>
         </is>
       </c>
-      <c r="S718" s="5" t="inlineStr">
+      <c r="S719" s="5" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="T718" s="5" t="inlineStr"/>
-      <c r="U718" s="5" t="inlineStr"/>
-    </row>
-    <row r="719">
-      <c r="A719" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001195</t>
-        </is>
-      </c>
-      <c r="B719" s="2" t="inlineStr">
-        <is>
-          <t>tobacco user</t>
-        </is>
-      </c>
-      <c r="C719" s="2" t="inlineStr">
-        <is>
-          <t>A substance user who engages in tobacco use.</t>
-        </is>
-      </c>
-      <c r="D719" s="2" t="inlineStr"/>
-      <c r="E719" s="2" t="inlineStr"/>
-      <c r="F719" s="2" t="inlineStr">
-        <is>
-          <t>substance user</t>
-        </is>
-      </c>
-      <c r="G719" s="2" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="H719" s="2" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I719" s="2" t="inlineStr"/>
-      <c r="J719" s="2" t="inlineStr"/>
-      <c r="K719" s="2" t="inlineStr"/>
-      <c r="L719" s="2" t="inlineStr"/>
-      <c r="M719" s="2" t="inlineStr"/>
-      <c r="N719" s="2" t="inlineStr"/>
-      <c r="O719" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="P719" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q719" s="2" t="inlineStr">
-        <is>
-          <t>The time period over which tobacco use is being represented must be defined.</t>
-        </is>
-      </c>
-      <c r="R719" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="S719" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T719" s="2" t="inlineStr"/>
-      <c r="U719" s="2" t="inlineStr"/>
+      <c r="T719" s="5" t="inlineStr"/>
+      <c r="U719" s="5" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000403</t>
+          <t>ADDICTO:0001195</t>
         </is>
       </c>
       <c r="B720" s="2" t="inlineStr">
         <is>
-          <t>tobacco-caused disease</t>
+          <t>tobacco user</t>
         </is>
       </c>
       <c r="C720" s="2" t="inlineStr">
         <is>
-          <t>A disease in which tobacco use has played a causal role.</t>
+          <t>A substance user who engages in tobacco use.</t>
         </is>
       </c>
       <c r="D720" s="2" t="inlineStr"/>
       <c r="E720" s="2" t="inlineStr"/>
       <c r="F720" s="2" t="inlineStr">
         <is>
-          <t>disease</t>
-        </is>
-      </c>
-      <c r="G720" s="2" t="inlineStr"/>
+          <t>substance user</t>
+        </is>
+      </c>
+      <c r="G720" s="2" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
       <c r="H720" s="2" t="inlineStr">
         <is>
           <t>Human being</t>
@@ -37799,23 +37781,23 @@
       <c r="K720" s="2" t="inlineStr"/>
       <c r="L720" s="2" t="inlineStr"/>
       <c r="M720" s="2" t="inlineStr"/>
-      <c r="N720" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Use of combustible tobacco is a leading cause of tobacco-related disease. </t>
-        </is>
-      </c>
-      <c r="O720" s="2" t="n">
+      <c r="N720" s="2" t="inlineStr"/>
+      <c r="O720" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="P720" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P720" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q720" s="2" t="inlineStr"/>
+      <c r="Q720" s="2" t="inlineStr">
+        <is>
+          <t>The time period over which tobacco use is being represented must be defined.</t>
+        </is>
+      </c>
       <c r="R720" s="2" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="S720" s="2" t="inlineStr">
@@ -37827,175 +37809,195 @@
       <c r="U720" s="2" t="inlineStr"/>
     </row>
     <row r="721">
-      <c r="A721" s="3" t="inlineStr">
+      <c r="A721" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000403</t>
+        </is>
+      </c>
+      <c r="B721" s="2" t="inlineStr">
+        <is>
+          <t>tobacco-caused disease</t>
+        </is>
+      </c>
+      <c r="C721" s="2" t="inlineStr">
+        <is>
+          <t>A disease in which tobacco use has played a causal role.</t>
+        </is>
+      </c>
+      <c r="D721" s="2" t="inlineStr"/>
+      <c r="E721" s="2" t="inlineStr"/>
+      <c r="F721" s="2" t="inlineStr">
+        <is>
+          <t>disease</t>
+        </is>
+      </c>
+      <c r="G721" s="2" t="inlineStr"/>
+      <c r="H721" s="2" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I721" s="2" t="inlineStr"/>
+      <c r="J721" s="2" t="inlineStr"/>
+      <c r="K721" s="2" t="inlineStr"/>
+      <c r="L721" s="2" t="inlineStr"/>
+      <c r="M721" s="2" t="inlineStr"/>
+      <c r="N721" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use of combustible tobacco is a leading cause of tobacco-related disease. </t>
+        </is>
+      </c>
+      <c r="O721" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P721" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q721" s="2" t="inlineStr"/>
+      <c r="R721" s="2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="S721" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T721" s="2" t="inlineStr"/>
+      <c r="U721" s="2" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000849</t>
         </is>
       </c>
-      <c r="B721" s="3" t="inlineStr">
+      <c r="B722" s="3" t="inlineStr">
         <is>
           <t>tobacco-containing product user</t>
         </is>
       </c>
-      <c r="C721" s="3" t="inlineStr">
+      <c r="C722" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A person who uses tobacco-containing products. </t>
         </is>
       </c>
-      <c r="D721" s="3" t="inlineStr"/>
-      <c r="E721" s="3" t="inlineStr"/>
-      <c r="F721" s="3" t="inlineStr">
+      <c r="D722" s="3" t="inlineStr"/>
+      <c r="E722" s="3" t="inlineStr"/>
+      <c r="F722" s="3" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="G721" s="3" t="inlineStr"/>
-      <c r="H721" s="3" t="inlineStr">
+      <c r="G722" s="3" t="inlineStr"/>
+      <c r="H722" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Human being </t>
         </is>
       </c>
-      <c r="I721" s="3" t="inlineStr"/>
-      <c r="J721" s="3" t="inlineStr"/>
-      <c r="K721" s="3" t="inlineStr"/>
-      <c r="L721" s="3" t="inlineStr"/>
-      <c r="M721" s="3" t="inlineStr">
+      <c r="I722" s="3" t="inlineStr"/>
+      <c r="J722" s="3" t="inlineStr"/>
+      <c r="K722" s="3" t="inlineStr"/>
+      <c r="L722" s="3" t="inlineStr"/>
+      <c r="M722" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">The type of product that is being used must be defined. </t>
         </is>
       </c>
-      <c r="N721" s="3" t="inlineStr"/>
-      <c r="O721" s="3" t="n">
+      <c r="N722" s="3" t="inlineStr"/>
+      <c r="O722" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P721" s="3" t="n">
+      <c r="P722" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Q721" s="3" t="inlineStr"/>
-      <c r="R721" s="3" t="inlineStr">
+      <c r="Q722" s="3" t="inlineStr"/>
+      <c r="R722" s="3" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="S721" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T721" s="3" t="inlineStr"/>
-      <c r="U721" s="3" t="inlineStr"/>
-    </row>
-    <row r="722">
-      <c r="A722" s="2" t="inlineStr">
+      <c r="S722" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T722" s="3" t="inlineStr"/>
+      <c r="U722" s="3" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000404</t>
         </is>
       </c>
-      <c r="B722" s="2" t="inlineStr">
+      <c r="B723" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">tobacco-related disease </t>
         </is>
       </c>
-      <c r="C722" s="2" t="inlineStr">
+      <c r="C723" s="2" t="inlineStr">
         <is>
           <t>A disease in which tobacco use is a significant risk factor.</t>
         </is>
       </c>
-      <c r="D722" s="2" t="inlineStr"/>
-      <c r="E722" s="2" t="inlineStr"/>
-      <c r="F722" s="2" t="inlineStr">
+      <c r="D723" s="2" t="inlineStr"/>
+      <c r="E723" s="2" t="inlineStr"/>
+      <c r="F723" s="2" t="inlineStr">
         <is>
           <t>disease</t>
         </is>
       </c>
-      <c r="G722" s="2" t="inlineStr"/>
-      <c r="H722" s="2" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I722" s="2" t="inlineStr"/>
-      <c r="J722" s="2" t="inlineStr"/>
-      <c r="K722" s="2" t="inlineStr"/>
-      <c r="L722" s="2" t="inlineStr"/>
-      <c r="M722" s="2" t="inlineStr"/>
-      <c r="N722" s="2" t="inlineStr">
+      <c r="G723" s="2" t="inlineStr"/>
+      <c r="H723" s="2" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I723" s="2" t="inlineStr"/>
+      <c r="J723" s="2" t="inlineStr"/>
+      <c r="K723" s="2" t="inlineStr"/>
+      <c r="L723" s="2" t="inlineStr"/>
+      <c r="M723" s="2" t="inlineStr"/>
+      <c r="N723" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Use of combustible tobacco increases the users risk of developing tobacco-related disease. </t>
         </is>
       </c>
-      <c r="O722" s="2" t="n">
+      <c r="O723" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P722" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q722" s="2" t="inlineStr"/>
-      <c r="R722" s="2" t="inlineStr">
+      <c r="P723" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q723" s="2" t="inlineStr"/>
+      <c r="R723" s="2" t="inlineStr">
         <is>
           <t>All</t>
         </is>
       </c>
-      <c r="S722" s="2" t="inlineStr">
+      <c r="S723" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T722" s="2" t="inlineStr"/>
-      <c r="U722" s="2" t="inlineStr"/>
-    </row>
-    <row r="723">
-      <c r="A723" s="3" t="inlineStr">
+      <c r="T723" s="2" t="inlineStr"/>
+      <c r="U723" s="2" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000823</t>
         </is>
       </c>
-      <c r="B723" s="3" t="inlineStr">
+      <c r="B724" s="3" t="inlineStr">
         <is>
           <t>toxic effect</t>
-        </is>
-      </c>
-      <c r="C723" s="3" t="inlineStr"/>
-      <c r="D723" s="3" t="inlineStr"/>
-      <c r="E723" s="3" t="inlineStr"/>
-      <c r="F723" s="3" t="inlineStr"/>
-      <c r="G723" s="3" t="inlineStr"/>
-      <c r="H723" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I723" s="3" t="inlineStr"/>
-      <c r="J723" s="3" t="inlineStr"/>
-      <c r="K723" s="3" t="inlineStr"/>
-      <c r="L723" s="3" t="inlineStr"/>
-      <c r="M723" s="3" t="inlineStr"/>
-      <c r="N723" s="3" t="inlineStr"/>
-      <c r="O723" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P723" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q723" s="3" t="inlineStr"/>
-      <c r="R723" s="3" t="inlineStr"/>
-      <c r="S723" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T723" s="3" t="inlineStr"/>
-      <c r="U723" s="3" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" s="3" t="inlineStr"/>
-      <c r="B724" s="3" t="inlineStr">
-        <is>
-          <t>toxicity pathway</t>
         </is>
       </c>
       <c r="C724" s="3" t="inlineStr"/>
@@ -38014,10 +38016,8 @@
       <c r="L724" s="3" t="inlineStr"/>
       <c r="M724" s="3" t="inlineStr"/>
       <c r="N724" s="3" t="inlineStr"/>
-      <c r="O724" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O724" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P724" s="3" t="inlineStr">
         <is>
@@ -38035,33 +38035,17 @@
       <c r="U724" s="3" t="inlineStr"/>
     </row>
     <row r="725">
-      <c r="A725" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000520</t>
-        </is>
-      </c>
+      <c r="A725" s="3" t="inlineStr"/>
       <c r="B725" s="3" t="inlineStr">
         <is>
-          <t>traffic accident</t>
-        </is>
-      </c>
-      <c r="C725" s="3" t="inlineStr">
-        <is>
-          <t>A process in which a vehicle collides with an object, person or vehicle, causing damage.</t>
-        </is>
-      </c>
+          <t>toxicity pathway</t>
+        </is>
+      </c>
+      <c r="C725" s="3" t="inlineStr"/>
       <c r="D725" s="3" t="inlineStr"/>
       <c r="E725" s="3" t="inlineStr"/>
-      <c r="F725" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="G725" s="3" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+      <c r="F725" s="3" t="inlineStr"/>
+      <c r="G725" s="3" t="inlineStr"/>
       <c r="H725" s="3" t="inlineStr">
         <is>
           <t>Human being</t>
@@ -38096,49 +38080,45 @@
     <row r="726">
       <c r="A726" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001185</t>
+          <t>ADDICTO:0000520</t>
         </is>
       </c>
       <c r="B726" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">transgender person </t>
+          <t>traffic accident</t>
         </is>
       </c>
       <c r="C726" s="3" t="inlineStr">
         <is>
-          <t>A person whose gender identity does not match their gender assigned at birth or a person who otherwise identifies as transgender</t>
+          <t>A process in which a vehicle collides with an object, person or vehicle, causing damage.</t>
         </is>
       </c>
       <c r="D726" s="3" t="inlineStr"/>
       <c r="E726" s="3" t="inlineStr"/>
       <c r="F726" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">person </t>
-        </is>
-      </c>
-      <c r="G726" s="3" t="inlineStr"/>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G726" s="3" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="H726" s="3" t="inlineStr">
         <is>
           <t>Human being</t>
         </is>
       </c>
-      <c r="I726" s="3" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/GSSO_000130</t>
-        </is>
-      </c>
+      <c r="I726" s="3" t="inlineStr"/>
       <c r="J726" s="3" t="inlineStr"/>
-      <c r="K726" s="3" t="inlineStr">
-        <is>
-          <t>trans</t>
-        </is>
-      </c>
+      <c r="K726" s="3" t="inlineStr"/>
       <c r="L726" s="3" t="inlineStr"/>
       <c r="M726" s="3" t="inlineStr"/>
       <c r="N726" s="3" t="inlineStr"/>
       <c r="O726" s="3" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P726" s="3" t="inlineStr">
@@ -38147,11 +38127,7 @@
         </is>
       </c>
       <c r="Q726" s="3" t="inlineStr"/>
-      <c r="R726" s="3" t="inlineStr">
-        <is>
-          <t>SC; JH</t>
-        </is>
-      </c>
+      <c r="R726" s="3" t="inlineStr"/>
       <c r="S726" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -38163,24 +38139,24 @@
     <row r="727">
       <c r="A727" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000934</t>
+          <t>ADDICTO:0001185</t>
         </is>
       </c>
       <c r="B727" s="3" t="inlineStr">
         <is>
-          <t>traumatic brain injury</t>
+          <t xml:space="preserve">transgender person </t>
         </is>
       </c>
       <c r="C727" s="3" t="inlineStr">
         <is>
-          <t>Brain injury as a result of trauma.</t>
+          <t>A person whose gender identity does not match their gender assigned at birth or a person who otherwise identifies as transgender</t>
         </is>
       </c>
       <c r="D727" s="3" t="inlineStr"/>
       <c r="E727" s="3" t="inlineStr"/>
       <c r="F727" s="3" t="inlineStr">
         <is>
-          <t>brain injury</t>
+          <t xml:space="preserve">person </t>
         </is>
       </c>
       <c r="G727" s="3" t="inlineStr"/>
@@ -38189,15 +38165,23 @@
           <t>Human being</t>
         </is>
       </c>
-      <c r="I727" s="3" t="inlineStr"/>
+      <c r="I727" s="3" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_000130</t>
+        </is>
+      </c>
       <c r="J727" s="3" t="inlineStr"/>
-      <c r="K727" s="3" t="inlineStr"/>
+      <c r="K727" s="3" t="inlineStr">
+        <is>
+          <t>trans</t>
+        </is>
+      </c>
       <c r="L727" s="3" t="inlineStr"/>
       <c r="M727" s="3" t="inlineStr"/>
       <c r="N727" s="3" t="inlineStr"/>
       <c r="O727" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="P727" s="3" t="inlineStr">
@@ -38208,7 +38192,7 @@
       <c r="Q727" s="3" t="inlineStr"/>
       <c r="R727" s="3" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="S727" s="3" t="inlineStr">
@@ -38222,24 +38206,24 @@
     <row r="728">
       <c r="A728" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000935</t>
+          <t>ADDICTO:0000934</t>
         </is>
       </c>
       <c r="B728" s="3" t="inlineStr">
         <is>
-          <t>treatment-seeking alcohol user</t>
+          <t>traumatic brain injury</t>
         </is>
       </c>
       <c r="C728" s="3" t="inlineStr">
         <is>
-          <t>An alcohol user who is currently seeking treatment for their alcohol use.</t>
+          <t>Brain injury as a result of trauma.</t>
         </is>
       </c>
       <c r="D728" s="3" t="inlineStr"/>
       <c r="E728" s="3" t="inlineStr"/>
       <c r="F728" s="3" t="inlineStr">
         <is>
-          <t>psychoactive substance user</t>
+          <t>brain injury</t>
         </is>
       </c>
       <c r="G728" s="3" t="inlineStr"/>
@@ -38281,17 +38265,17 @@
     <row r="729">
       <c r="A729" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001083</t>
+          <t>ADDICTO:0000935</t>
         </is>
       </c>
       <c r="B729" s="3" t="inlineStr">
         <is>
-          <t>treatment-seeking opioid user</t>
+          <t>treatment-seeking alcohol user</t>
         </is>
       </c>
       <c r="C729" s="3" t="inlineStr">
         <is>
-          <t>An opioid user who is currently seeking treatment for opioid use disorder</t>
+          <t>An alcohol user who is currently seeking treatment for their alcohol use.</t>
         </is>
       </c>
       <c r="D729" s="3" t="inlineStr"/>
@@ -38338,148 +38322,148 @@
       <c r="U729" s="3" t="inlineStr"/>
     </row>
     <row r="730">
-      <c r="A730" s="2" t="inlineStr">
+      <c r="A730" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001083</t>
+        </is>
+      </c>
+      <c r="B730" s="3" t="inlineStr">
+        <is>
+          <t>treatment-seeking opioid user</t>
+        </is>
+      </c>
+      <c r="C730" s="3" t="inlineStr">
+        <is>
+          <t>An opioid user who is currently seeking treatment for opioid use disorder</t>
+        </is>
+      </c>
+      <c r="D730" s="3" t="inlineStr"/>
+      <c r="E730" s="3" t="inlineStr"/>
+      <c r="F730" s="3" t="inlineStr">
+        <is>
+          <t>psychoactive substance user</t>
+        </is>
+      </c>
+      <c r="G730" s="3" t="inlineStr"/>
+      <c r="H730" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I730" s="3" t="inlineStr"/>
+      <c r="J730" s="3" t="inlineStr"/>
+      <c r="K730" s="3" t="inlineStr"/>
+      <c r="L730" s="3" t="inlineStr"/>
+      <c r="M730" s="3" t="inlineStr"/>
+      <c r="N730" s="3" t="inlineStr"/>
+      <c r="O730" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P730" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q730" s="3" t="inlineStr"/>
+      <c r="R730" s="3" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="S730" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T730" s="3" t="inlineStr"/>
+      <c r="U730" s="3" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000936</t>
         </is>
       </c>
-      <c r="B730" s="2" t="inlineStr">
+      <c r="B731" s="2" t="inlineStr">
         <is>
           <t>treatment-seeking substance user</t>
         </is>
       </c>
-      <c r="C730" s="2" t="inlineStr">
+      <c r="C731" s="2" t="inlineStr">
         <is>
           <t>A substance user who is in contact with a service to receive treatment for a substance use disorder.</t>
         </is>
       </c>
-      <c r="D730" s="2" t="inlineStr"/>
-      <c r="E730" s="2" t="inlineStr"/>
-      <c r="F730" s="2" t="inlineStr">
+      <c r="D731" s="2" t="inlineStr"/>
+      <c r="E731" s="2" t="inlineStr"/>
+      <c r="F731" s="2" t="inlineStr">
         <is>
           <t>substance user</t>
         </is>
       </c>
-      <c r="G730" s="2" t="inlineStr">
+      <c r="G731" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="H730" s="2" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I730" s="2" t="inlineStr"/>
-      <c r="J730" s="2" t="inlineStr"/>
-      <c r="K730" s="2" t="inlineStr"/>
-      <c r="L730" s="2" t="inlineStr"/>
-      <c r="M730" s="2" t="inlineStr"/>
-      <c r="N730" s="2" t="inlineStr"/>
-      <c r="O730" s="2" t="inlineStr">
+      <c r="H731" s="2" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I731" s="2" t="inlineStr"/>
+      <c r="J731" s="2" t="inlineStr"/>
+      <c r="K731" s="2" t="inlineStr"/>
+      <c r="L731" s="2" t="inlineStr"/>
+      <c r="M731" s="2" t="inlineStr"/>
+      <c r="N731" s="2" t="inlineStr"/>
+      <c r="O731" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="P730" s="2" t="inlineStr">
+      <c r="P731" s="2" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="Q730" s="2" t="inlineStr"/>
-      <c r="R730" s="2" t="inlineStr">
+      <c r="Q731" s="2" t="inlineStr"/>
+      <c r="R731" s="2" t="inlineStr">
         <is>
           <t>KS; RW</t>
         </is>
       </c>
-      <c r="S730" s="2" t="inlineStr">
+      <c r="S731" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T730" s="2" t="inlineStr"/>
-      <c r="U730" s="2" t="inlineStr"/>
-    </row>
-    <row r="731">
-      <c r="A731" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000937</t>
-        </is>
-      </c>
-      <c r="B731" s="3" t="inlineStr">
-        <is>
-          <t>treatment-seeking, opioid dependent patient with/without chronic pain</t>
-        </is>
-      </c>
-      <c r="C731" s="3" t="inlineStr">
-        <is>
-          <t>An opioid dependant patient who is currently seeking treatment for their opioid use, who is with/without chronic pain.</t>
-        </is>
-      </c>
-      <c r="D731" s="3" t="inlineStr"/>
-      <c r="E731" s="3" t="inlineStr"/>
-      <c r="F731" s="3" t="inlineStr">
-        <is>
-          <t>opioid dependant patient</t>
-        </is>
-      </c>
-      <c r="G731" s="3" t="inlineStr"/>
-      <c r="H731" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I731" s="3" t="inlineStr"/>
-      <c r="J731" s="3" t="inlineStr"/>
-      <c r="K731" s="3" t="inlineStr"/>
-      <c r="L731" s="3" t="inlineStr"/>
-      <c r="M731" s="3" t="inlineStr"/>
-      <c r="N731" s="3" t="inlineStr"/>
-      <c r="O731" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P731" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q731" s="3" t="inlineStr"/>
-      <c r="R731" s="3" t="inlineStr">
-        <is>
-          <t>KS</t>
-        </is>
-      </c>
-      <c r="S731" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T731" s="3" t="inlineStr"/>
-      <c r="U731" s="3" t="inlineStr"/>
+      <c r="T731" s="2" t="inlineStr"/>
+      <c r="U731" s="2" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001051</t>
+          <t>ADDICTO:0000937</t>
         </is>
       </c>
       <c r="B732" s="3" t="inlineStr">
         <is>
-          <t>trimester</t>
+          <t>treatment-seeking, opioid dependent patient with/without chronic pain</t>
         </is>
       </c>
       <c r="C732" s="3" t="inlineStr">
         <is>
-          <t>A period of three months; especially one of the three months of gestation into which a human pregnancy is divided.</t>
+          <t>An opioid dependant patient who is currently seeking treatment for their opioid use, who is with/without chronic pain.</t>
         </is>
       </c>
       <c r="D732" s="3" t="inlineStr"/>
       <c r="E732" s="3" t="inlineStr"/>
       <c r="F732" s="3" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>opioid dependant patient</t>
         </is>
       </c>
       <c r="G732" s="3" t="inlineStr"/>
@@ -38507,7 +38491,7 @@
       <c r="Q732" s="3" t="inlineStr"/>
       <c r="R732" s="3" t="inlineStr">
         <is>
-          <t>KS; JH</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="S732" s="3" t="inlineStr">
@@ -38519,120 +38503,136 @@
       <c r="U732" s="3" t="inlineStr"/>
     </row>
     <row r="733">
-      <c r="A733" t="inlineStr">
+      <c r="A733" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001051</t>
+        </is>
+      </c>
+      <c r="B733" s="3" t="inlineStr">
+        <is>
+          <t>trimester</t>
+        </is>
+      </c>
+      <c r="C733" s="3" t="inlineStr">
+        <is>
+          <t>A period of three months; especially one of the three months of gestation into which a human pregnancy is divided.</t>
+        </is>
+      </c>
+      <c r="D733" s="3" t="inlineStr"/>
+      <c r="E733" s="3" t="inlineStr"/>
+      <c r="F733" s="3" t="inlineStr">
+        <is>
+          <t>temporal region</t>
+        </is>
+      </c>
+      <c r="G733" s="3" t="inlineStr"/>
+      <c r="H733" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I733" s="3" t="inlineStr"/>
+      <c r="J733" s="3" t="inlineStr"/>
+      <c r="K733" s="3" t="inlineStr"/>
+      <c r="L733" s="3" t="inlineStr"/>
+      <c r="M733" s="3" t="inlineStr"/>
+      <c r="N733" s="3" t="inlineStr"/>
+      <c r="O733" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P733" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q733" s="3" t="inlineStr"/>
+      <c r="R733" s="3" t="inlineStr">
+        <is>
+          <t>KS; JH</t>
+        </is>
+      </c>
+      <c r="S733" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T733" s="3" t="inlineStr"/>
+      <c r="U733" s="3" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
         <is>
           <t>DOID:399</t>
         </is>
       </c>
-      <c r="B733" t="inlineStr">
+      <c r="B734" t="inlineStr">
         <is>
           <t>tuberculosis</t>
         </is>
       </c>
-      <c r="C733" t="inlineStr">
+      <c r="C734" t="inlineStr">
         <is>
           <t>A primary bacterial infectious disease that is located_in lungs, located_in lymph nodes, located_in pericardium, located_in brain, located_in pleura or located_in gastrointestinal tract, has_material_basis_in Mycobacterium tuberculosis, which is transmitted_by droplets released into the air when an infected person coughs or sneezes.</t>
         </is>
       </c>
-      <c r="D733" t="inlineStr"/>
-      <c r="E733" t="inlineStr"/>
-      <c r="F733" t="inlineStr">
+      <c r="D734" t="inlineStr"/>
+      <c r="E734" t="inlineStr"/>
+      <c r="F734" t="inlineStr">
         <is>
           <t>primary bacterial infectious disease</t>
         </is>
       </c>
-      <c r="G733" t="inlineStr"/>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I733" t="inlineStr">
+      <c r="G734" t="inlineStr"/>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I734" t="inlineStr">
         <is>
           <t>DOID:399</t>
         </is>
       </c>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
         <is>
           <t>TB</t>
         </is>
       </c>
-      <c r="L733" t="inlineStr"/>
-      <c r="M733" t="inlineStr"/>
-      <c r="N733" t="inlineStr"/>
-      <c r="O733" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P733" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q733" t="inlineStr"/>
-      <c r="R733" t="inlineStr">
+      <c r="L734" t="inlineStr"/>
+      <c r="M734" t="inlineStr"/>
+      <c r="N734" t="inlineStr"/>
+      <c r="O734" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P734" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q734" t="inlineStr"/>
+      <c r="R734" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="S733" t="inlineStr">
+      <c r="S734" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T733" t="inlineStr"/>
-      <c r="U733" t="inlineStr"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="3" t="inlineStr"/>
-      <c r="B734" s="3" t="inlineStr">
-        <is>
-          <t>twin</t>
-        </is>
-      </c>
-      <c r="C734" s="3" t="inlineStr"/>
-      <c r="D734" s="3" t="inlineStr"/>
-      <c r="E734" s="3" t="inlineStr"/>
-      <c r="F734" s="3" t="inlineStr"/>
-      <c r="G734" s="3" t="inlineStr"/>
-      <c r="H734" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I734" s="3" t="inlineStr"/>
-      <c r="J734" s="3" t="inlineStr"/>
-      <c r="K734" s="3" t="inlineStr"/>
-      <c r="L734" s="3" t="inlineStr"/>
-      <c r="M734" s="3" t="inlineStr"/>
-      <c r="N734" s="3" t="inlineStr"/>
-      <c r="O734" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P734" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q734" s="3" t="inlineStr"/>
-      <c r="R734" s="3" t="inlineStr"/>
-      <c r="S734" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T734" s="3" t="inlineStr"/>
-      <c r="U734" s="3" t="inlineStr"/>
+      <c r="T734" t="inlineStr"/>
+      <c r="U734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" s="3" t="inlineStr"/>
       <c r="B735" s="3" t="inlineStr">
         <is>
-          <t>underlying genetic liabilitly towards alchohol misuse</t>
+          <t>twin</t>
         </is>
       </c>
       <c r="C735" s="3" t="inlineStr"/>
@@ -38672,135 +38672,119 @@
       <c r="U735" s="3" t="inlineStr"/>
     </row>
     <row r="736">
-      <c r="A736" t="inlineStr">
+      <c r="A736" s="3" t="inlineStr"/>
+      <c r="B736" s="3" t="inlineStr">
+        <is>
+          <t>underlying genetic liabilitly towards alchohol misuse</t>
+        </is>
+      </c>
+      <c r="C736" s="3" t="inlineStr"/>
+      <c r="D736" s="3" t="inlineStr"/>
+      <c r="E736" s="3" t="inlineStr"/>
+      <c r="F736" s="3" t="inlineStr"/>
+      <c r="G736" s="3" t="inlineStr"/>
+      <c r="H736" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I736" s="3" t="inlineStr"/>
+      <c r="J736" s="3" t="inlineStr"/>
+      <c r="K736" s="3" t="inlineStr"/>
+      <c r="L736" s="3" t="inlineStr"/>
+      <c r="M736" s="3" t="inlineStr"/>
+      <c r="N736" s="3" t="inlineStr"/>
+      <c r="O736" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P736" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q736" s="3" t="inlineStr"/>
+      <c r="R736" s="3" t="inlineStr"/>
+      <c r="S736" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T736" s="3" t="inlineStr"/>
+      <c r="U736" s="3" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
         <is>
           <t xml:space="preserve">SDGIO:00010026 </t>
         </is>
       </c>
-      <c r="B736" t="inlineStr">
+      <c r="B737" t="inlineStr">
         <is>
           <t>unemployed status</t>
         </is>
       </c>
-      <c r="C736" t="inlineStr">
+      <c r="C737" t="inlineStr">
         <is>
           <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
         </is>
       </c>
-      <c r="D736" t="inlineStr"/>
-      <c r="E736" t="inlineStr"/>
-      <c r="F736" t="inlineStr">
+      <c r="D737" t="inlineStr"/>
+      <c r="E737" t="inlineStr"/>
+      <c r="F737" t="inlineStr">
         <is>
           <t>sociodemographic attribute</t>
         </is>
       </c>
-      <c r="G736" t="inlineStr"/>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
-      <c r="M736" t="inlineStr"/>
-      <c r="N736" t="inlineStr"/>
-      <c r="O736" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P736" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q736" t="inlineStr"/>
-      <c r="R736" t="inlineStr">
+      <c r="G737" t="inlineStr"/>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="inlineStr"/>
+      <c r="M737" t="inlineStr"/>
+      <c r="N737" t="inlineStr"/>
+      <c r="O737" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P737" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q737" t="inlineStr"/>
+      <c r="R737" t="inlineStr">
         <is>
           <t>KS; JH</t>
         </is>
       </c>
-      <c r="S736" t="inlineStr">
+      <c r="S737" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T736" t="inlineStr"/>
-      <c r="U736" t="inlineStr"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="3" t="inlineStr"/>
-      <c r="B737" s="3" t="inlineStr">
+      <c r="T737" t="inlineStr"/>
+      <c r="U737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="3" t="inlineStr"/>
+      <c r="B738" s="3" t="inlineStr">
         <is>
           <t>university staff member</t>
         </is>
       </c>
-      <c r="C737" s="3" t="inlineStr"/>
-      <c r="D737" s="3" t="inlineStr"/>
-      <c r="E737" s="3" t="inlineStr"/>
-      <c r="F737" s="3" t="inlineStr"/>
-      <c r="G737" s="3" t="inlineStr"/>
-      <c r="H737" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I737" s="3" t="inlineStr"/>
-      <c r="J737" s="3" t="inlineStr"/>
-      <c r="K737" s="3" t="inlineStr"/>
-      <c r="L737" s="3" t="inlineStr"/>
-      <c r="M737" s="3" t="inlineStr"/>
-      <c r="N737" s="3" t="inlineStr"/>
-      <c r="O737" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P737" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q737" s="3" t="inlineStr"/>
-      <c r="R737" s="3" t="inlineStr"/>
-      <c r="S737" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T737" s="3" t="inlineStr"/>
-      <c r="U737" s="3" t="inlineStr"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000407</t>
-        </is>
-      </c>
-      <c r="B738" s="3" t="inlineStr">
-        <is>
-          <t>urge</t>
-        </is>
-      </c>
-      <c r="C738" s="3" t="inlineStr">
-        <is>
-          <t>A mental process that involves a feeling of strong impulse to engage in a behaviour.</t>
-        </is>
-      </c>
+      <c r="C738" s="3" t="inlineStr"/>
       <c r="D738" s="3" t="inlineStr"/>
       <c r="E738" s="3" t="inlineStr"/>
-      <c r="F738" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="G738" s="3" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+      <c r="F738" s="3" t="inlineStr"/>
+      <c r="G738" s="3" t="inlineStr"/>
       <c r="H738" s="3" t="inlineStr">
         <is>
           <t>Human being</t>
@@ -38835,24 +38819,24 @@
     <row r="739">
       <c r="A739" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000408</t>
+          <t>ADDICTO:0000407</t>
         </is>
       </c>
       <c r="B739" s="3" t="inlineStr">
         <is>
-          <t>urge to smoke</t>
+          <t>urge</t>
         </is>
       </c>
       <c r="C739" s="3" t="inlineStr">
         <is>
-          <t>An urge in which the behaviour that is the target of the feeling is smoking.</t>
+          <t>A mental process that involves a feeling of strong impulse to engage in a behaviour.</t>
         </is>
       </c>
       <c r="D739" s="3" t="inlineStr"/>
       <c r="E739" s="3" t="inlineStr"/>
       <c r="F739" s="3" t="inlineStr">
         <is>
-          <t>urge</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="G739" s="3" t="inlineStr">
@@ -38871,8 +38855,10 @@
       <c r="L739" s="3" t="inlineStr"/>
       <c r="M739" s="3" t="inlineStr"/>
       <c r="N739" s="3" t="inlineStr"/>
-      <c r="O739" s="3" t="n">
-        <v>1</v>
+      <c r="O739" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P739" s="3" t="inlineStr">
         <is>
@@ -38892,17 +38878,17 @@
     <row r="740">
       <c r="A740" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001088</t>
+          <t>ADDICTO:0000408</t>
         </is>
       </c>
       <c r="B740" s="3" t="inlineStr">
         <is>
-          <t>urge to vape</t>
+          <t>urge to smoke</t>
         </is>
       </c>
       <c r="C740" s="3" t="inlineStr">
         <is>
-          <t>An urge in which the behaviour that is the target of the feeling is vaping.</t>
+          <t>An urge in which the behaviour that is the target of the feeling is smoking.</t>
         </is>
       </c>
       <c r="D740" s="3" t="inlineStr"/>
@@ -38928,22 +38914,16 @@
       <c r="L740" s="3" t="inlineStr"/>
       <c r="M740" s="3" t="inlineStr"/>
       <c r="N740" s="3" t="inlineStr"/>
-      <c r="O740" s="3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="O740" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P740" s="3" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q740" s="3" t="inlineStr"/>
-      <c r="R740" s="3" t="inlineStr">
-        <is>
-          <t>KS</t>
-        </is>
-      </c>
+      <c r="R740" s="3" t="inlineStr"/>
       <c r="S740" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -38953,17 +38933,33 @@
       <c r="U740" s="3" t="inlineStr"/>
     </row>
     <row r="741">
-      <c r="A741" s="3" t="inlineStr"/>
+      <c r="A741" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001088</t>
+        </is>
+      </c>
       <c r="B741" s="3" t="inlineStr">
         <is>
-          <t>urinary cotinine</t>
-        </is>
-      </c>
-      <c r="C741" s="3" t="inlineStr"/>
+          <t>urge to vape</t>
+        </is>
+      </c>
+      <c r="C741" s="3" t="inlineStr">
+        <is>
+          <t>An urge in which the behaviour that is the target of the feeling is vaping.</t>
+        </is>
+      </c>
       <c r="D741" s="3" t="inlineStr"/>
       <c r="E741" s="3" t="inlineStr"/>
-      <c r="F741" s="3" t="inlineStr"/>
-      <c r="G741" s="3" t="inlineStr"/>
+      <c r="F741" s="3" t="inlineStr">
+        <is>
+          <t>urge</t>
+        </is>
+      </c>
+      <c r="G741" s="3" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="H741" s="3" t="inlineStr">
         <is>
           <t>Human being</t>
@@ -38975,16 +38971,22 @@
       <c r="L741" s="3" t="inlineStr"/>
       <c r="M741" s="3" t="inlineStr"/>
       <c r="N741" s="3" t="inlineStr"/>
-      <c r="O741" s="3" t="n">
-        <v>1</v>
+      <c r="O741" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="P741" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>false</t>
         </is>
       </c>
       <c r="Q741" s="3" t="inlineStr"/>
-      <c r="R741" s="3" t="inlineStr"/>
+      <c r="R741" s="3" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
       <c r="S741" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -38997,7 +38999,7 @@
       <c r="A742" s="3" t="inlineStr"/>
       <c r="B742" s="3" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>urinary cotinine</t>
         </is>
       </c>
       <c r="C742" s="3" t="inlineStr"/>
@@ -39016,10 +39018,8 @@
       <c r="L742" s="3" t="inlineStr"/>
       <c r="M742" s="3" t="inlineStr"/>
       <c r="N742" s="3" t="inlineStr"/>
-      <c r="O742" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O742" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P742" s="3" t="inlineStr">
         <is>
@@ -39037,28 +39037,16 @@
       <c r="U742" s="3" t="inlineStr"/>
     </row>
     <row r="743">
-      <c r="A743" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000811</t>
-        </is>
-      </c>
+      <c r="A743" s="3" t="inlineStr"/>
       <c r="B743" s="3" t="inlineStr">
         <is>
-          <t>user of edible cannabis products</t>
-        </is>
-      </c>
-      <c r="C743" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A cannabis user who ingests cannabis through edible products. </t>
-        </is>
-      </c>
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="C743" s="3" t="inlineStr"/>
       <c r="D743" s="3" t="inlineStr"/>
       <c r="E743" s="3" t="inlineStr"/>
-      <c r="F743" s="3" t="inlineStr">
-        <is>
-          <t>cannabis user</t>
-        </is>
-      </c>
+      <c r="F743" s="3" t="inlineStr"/>
       <c r="G743" s="3" t="inlineStr"/>
       <c r="H743" s="3" t="inlineStr">
         <is>
@@ -39069,14 +39057,12 @@
       <c r="J743" s="3" t="inlineStr"/>
       <c r="K743" s="3" t="inlineStr"/>
       <c r="L743" s="3" t="inlineStr"/>
-      <c r="M743" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This defintion deliberately seperates cannabis smoking from the use of cannabis by edibles. </t>
-        </is>
-      </c>
+      <c r="M743" s="3" t="inlineStr"/>
       <c r="N743" s="3" t="inlineStr"/>
-      <c r="O743" s="3" t="n">
-        <v>1</v>
+      <c r="O743" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P743" s="3" t="inlineStr">
         <is>
@@ -39084,11 +39070,7 @@
         </is>
       </c>
       <c r="Q743" s="3" t="inlineStr"/>
-      <c r="R743" s="3" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="R743" s="3" t="inlineStr"/>
       <c r="S743" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -39098,130 +39080,138 @@
       <c r="U743" s="3" t="inlineStr"/>
     </row>
     <row r="744">
-      <c r="A744" s="4" t="inlineStr">
+      <c r="A744" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000811</t>
+        </is>
+      </c>
+      <c r="B744" s="3" t="inlineStr">
+        <is>
+          <t>user of edible cannabis products</t>
+        </is>
+      </c>
+      <c r="C744" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A cannabis user who ingests cannabis through edible products. </t>
+        </is>
+      </c>
+      <c r="D744" s="3" t="inlineStr"/>
+      <c r="E744" s="3" t="inlineStr"/>
+      <c r="F744" s="3" t="inlineStr">
+        <is>
+          <t>cannabis user</t>
+        </is>
+      </c>
+      <c r="G744" s="3" t="inlineStr"/>
+      <c r="H744" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I744" s="3" t="inlineStr"/>
+      <c r="J744" s="3" t="inlineStr"/>
+      <c r="K744" s="3" t="inlineStr"/>
+      <c r="L744" s="3" t="inlineStr"/>
+      <c r="M744" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This defintion deliberately seperates cannabis smoking from the use of cannabis by edibles. </t>
+        </is>
+      </c>
+      <c r="N744" s="3" t="inlineStr"/>
+      <c r="O744" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P744" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q744" s="3" t="inlineStr"/>
+      <c r="R744" s="3" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S744" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T744" s="3" t="inlineStr"/>
+      <c r="U744" s="3" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000409</t>
         </is>
       </c>
-      <c r="B744" s="4" t="inlineStr">
+      <c r="B745" s="4" t="inlineStr">
         <is>
           <t>vaper identity</t>
         </is>
       </c>
-      <c r="C744" s="4" t="inlineStr">
+      <c r="C745" s="4" t="inlineStr">
         <is>
           <t>An identity in which a person represents themselves as a vaper.</t>
         </is>
       </c>
-      <c r="D744" s="4" t="inlineStr"/>
-      <c r="E744" s="4" t="inlineStr"/>
-      <c r="F744" s="4" t="inlineStr">
+      <c r="D745" s="4" t="inlineStr"/>
+      <c r="E745" s="4" t="inlineStr"/>
+      <c r="F745" s="4" t="inlineStr">
         <is>
           <t>self-identity</t>
         </is>
       </c>
-      <c r="G744" s="4" t="inlineStr"/>
-      <c r="H744" s="4" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I744" s="4" t="inlineStr"/>
-      <c r="J744" s="4" t="inlineStr"/>
-      <c r="K744" s="4" t="inlineStr"/>
-      <c r="L744" s="4" t="inlineStr"/>
-      <c r="M744" s="4" t="inlineStr"/>
-      <c r="N744" s="4" t="inlineStr"/>
-      <c r="O744" s="4" t="n">
+      <c r="G745" s="4" t="inlineStr"/>
+      <c r="H745" s="4" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I745" s="4" t="inlineStr"/>
+      <c r="J745" s="4" t="inlineStr"/>
+      <c r="K745" s="4" t="inlineStr"/>
+      <c r="L745" s="4" t="inlineStr"/>
+      <c r="M745" s="4" t="inlineStr"/>
+      <c r="N745" s="4" t="inlineStr"/>
+      <c r="O745" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P744" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q744" s="4" t="inlineStr"/>
-      <c r="R744" s="4" t="inlineStr">
+      <c r="P745" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q745" s="4" t="inlineStr"/>
+      <c r="R745" s="4" t="inlineStr">
         <is>
           <t>JH; SC; CN; RW</t>
         </is>
       </c>
-      <c r="S744" s="4" t="inlineStr">
+      <c r="S745" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T744" s="4" t="inlineStr">
+      <c r="T745" s="4" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U744" s="4" t="inlineStr"/>
-    </row>
-    <row r="745">
-      <c r="A745" s="3" t="inlineStr"/>
-      <c r="B745" s="3" t="inlineStr">
+      <c r="U745" s="4" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="3" t="inlineStr"/>
+      <c r="B746" s="3" t="inlineStr">
         <is>
           <t>vulnerability to substance use</t>
         </is>
       </c>
-      <c r="C745" s="3" t="inlineStr"/>
-      <c r="D745" s="3" t="inlineStr"/>
-      <c r="E745" s="3" t="inlineStr"/>
-      <c r="F745" s="3" t="inlineStr"/>
-      <c r="G745" s="3" t="inlineStr"/>
-      <c r="H745" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I745" s="3" t="inlineStr"/>
-      <c r="J745" s="3" t="inlineStr"/>
-      <c r="K745" s="3" t="inlineStr"/>
-      <c r="L745" s="3" t="inlineStr"/>
-      <c r="M745" s="3" t="inlineStr"/>
-      <c r="N745" s="3" t="inlineStr"/>
-      <c r="O745" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P745" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q745" s="3" t="inlineStr"/>
-      <c r="R745" s="3" t="inlineStr"/>
-      <c r="S745" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T745" s="3" t="inlineStr"/>
-      <c r="U745" s="3" t="inlineStr"/>
-    </row>
-    <row r="746">
-      <c r="A746" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001089</t>
-        </is>
-      </c>
-      <c r="B746" s="3" t="inlineStr">
-        <is>
-          <t>vulnerable adult</t>
-        </is>
-      </c>
-      <c r="C746" s="3" t="inlineStr">
-        <is>
-          <t>An adult who is unable to look after themselves and or who is unable to protect themselves against significant harm or exploitation.</t>
-        </is>
-      </c>
+      <c r="C746" s="3" t="inlineStr"/>
       <c r="D746" s="3" t="inlineStr"/>
       <c r="E746" s="3" t="inlineStr"/>
-      <c r="F746" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">adult </t>
-        </is>
-      </c>
+      <c r="F746" s="3" t="inlineStr"/>
       <c r="G746" s="3" t="inlineStr"/>
       <c r="H746" s="3" t="inlineStr">
         <is>
@@ -39230,18 +39220,12 @@
       </c>
       <c r="I746" s="3" t="inlineStr"/>
       <c r="J746" s="3" t="inlineStr"/>
-      <c r="K746" s="3" t="inlineStr">
-        <is>
-          <t>At risk adult</t>
-        </is>
-      </c>
+      <c r="K746" s="3" t="inlineStr"/>
       <c r="L746" s="3" t="inlineStr"/>
       <c r="M746" s="3" t="inlineStr"/>
       <c r="N746" s="3" t="inlineStr"/>
-      <c r="O746" s="3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="O746" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P746" s="3" t="inlineStr">
         <is>
@@ -39249,44 +39233,36 @@
         </is>
       </c>
       <c r="Q746" s="3" t="inlineStr"/>
-      <c r="R746" s="3" t="inlineStr">
-        <is>
-          <t>SC; JH, CN</t>
-        </is>
-      </c>
+      <c r="R746" s="3" t="inlineStr"/>
       <c r="S746" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T746" s="3" t="inlineStr">
-        <is>
-          <t>RW; KS</t>
-        </is>
-      </c>
+      <c r="T746" s="3" t="inlineStr"/>
       <c r="U746" s="3" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000850</t>
+          <t>ADDICTO:0001089</t>
         </is>
       </c>
       <c r="B747" s="3" t="inlineStr">
         <is>
-          <t>waterpipe smoker</t>
+          <t>vulnerable adult</t>
         </is>
       </c>
       <c r="C747" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco-containing product user who reports using a waterpipe. </t>
+          <t>An adult who is unable to look after themselves and or who is unable to protect themselves against significant harm or exploitation.</t>
         </is>
       </c>
       <c r="D747" s="3" t="inlineStr"/>
       <c r="E747" s="3" t="inlineStr"/>
       <c r="F747" s="3" t="inlineStr">
         <is>
-          <t>tobacco-containing product user</t>
+          <t xml:space="preserve">adult </t>
         </is>
       </c>
       <c r="G747" s="3" t="inlineStr"/>
@@ -39299,14 +39275,16 @@
       <c r="J747" s="3" t="inlineStr"/>
       <c r="K747" s="3" t="inlineStr">
         <is>
-          <t>waterpipe user</t>
+          <t>At risk adult</t>
         </is>
       </c>
       <c r="L747" s="3" t="inlineStr"/>
       <c r="M747" s="3" t="inlineStr"/>
       <c r="N747" s="3" t="inlineStr"/>
-      <c r="O747" s="3" t="n">
-        <v>1</v>
+      <c r="O747" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="P747" s="3" t="inlineStr">
         <is>
@@ -39316,7 +39294,7 @@
       <c r="Q747" s="3" t="inlineStr"/>
       <c r="R747" s="3" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH, CN</t>
         </is>
       </c>
       <c r="S747" s="3" t="inlineStr">
@@ -39324,20 +39302,36 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T747" s="3" t="inlineStr"/>
+      <c r="T747" s="3" t="inlineStr">
+        <is>
+          <t>RW; KS</t>
+        </is>
+      </c>
       <c r="U747" s="3" t="inlineStr"/>
     </row>
     <row r="748">
-      <c r="A748" s="3" t="inlineStr"/>
+      <c r="A748" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000850</t>
+        </is>
+      </c>
       <c r="B748" s="3" t="inlineStr">
         <is>
-          <t>weekly alcohol consumption</t>
-        </is>
-      </c>
-      <c r="C748" s="3" t="inlineStr"/>
+          <t>waterpipe smoker</t>
+        </is>
+      </c>
+      <c r="C748" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A tobacco-containing product user who reports using a waterpipe. </t>
+        </is>
+      </c>
       <c r="D748" s="3" t="inlineStr"/>
       <c r="E748" s="3" t="inlineStr"/>
-      <c r="F748" s="3" t="inlineStr"/>
+      <c r="F748" s="3" t="inlineStr">
+        <is>
+          <t>tobacco-containing product user</t>
+        </is>
+      </c>
       <c r="G748" s="3" t="inlineStr"/>
       <c r="H748" s="3" t="inlineStr">
         <is>
@@ -39346,14 +39340,16 @@
       </c>
       <c r="I748" s="3" t="inlineStr"/>
       <c r="J748" s="3" t="inlineStr"/>
-      <c r="K748" s="3" t="inlineStr"/>
+      <c r="K748" s="3" t="inlineStr">
+        <is>
+          <t>waterpipe user</t>
+        </is>
+      </c>
       <c r="L748" s="3" t="inlineStr"/>
       <c r="M748" s="3" t="inlineStr"/>
       <c r="N748" s="3" t="inlineStr"/>
-      <c r="O748" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O748" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P748" s="3" t="inlineStr">
         <is>
@@ -39361,7 +39357,11 @@
         </is>
       </c>
       <c r="Q748" s="3" t="inlineStr"/>
-      <c r="R748" s="3" t="inlineStr"/>
+      <c r="R748" s="3" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="S748" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -39374,7 +39374,7 @@
       <c r="A749" s="3" t="inlineStr"/>
       <c r="B749" s="3" t="inlineStr">
         <is>
-          <t>willingness to consume alcohol</t>
+          <t>weekly alcohol consumption</t>
         </is>
       </c>
       <c r="C749" s="3" t="inlineStr"/>
@@ -39389,11 +39389,7 @@
       </c>
       <c r="I749" s="3" t="inlineStr"/>
       <c r="J749" s="3" t="inlineStr"/>
-      <c r="K749" s="3" t="inlineStr">
-        <is>
-          <t>Willingness to drink</t>
-        </is>
-      </c>
+      <c r="K749" s="3" t="inlineStr"/>
       <c r="L749" s="3" t="inlineStr"/>
       <c r="M749" s="3" t="inlineStr"/>
       <c r="N749" s="3" t="inlineStr"/>
@@ -39421,7 +39417,7 @@
       <c r="A750" s="3" t="inlineStr"/>
       <c r="B750" s="3" t="inlineStr">
         <is>
-          <t>willingness-to-pay threshold</t>
+          <t>willingness to consume alcohol</t>
         </is>
       </c>
       <c r="C750" s="3" t="inlineStr"/>
@@ -39436,7 +39432,11 @@
       </c>
       <c r="I750" s="3" t="inlineStr"/>
       <c r="J750" s="3" t="inlineStr"/>
-      <c r="K750" s="3" t="inlineStr"/>
+      <c r="K750" s="3" t="inlineStr">
+        <is>
+          <t>Willingness to drink</t>
+        </is>
+      </c>
       <c r="L750" s="3" t="inlineStr"/>
       <c r="M750" s="3" t="inlineStr"/>
       <c r="N750" s="3" t="inlineStr"/>
@@ -39461,51 +39461,31 @@
       <c r="U750" s="3" t="inlineStr"/>
     </row>
     <row r="751">
-      <c r="A751" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001186</t>
-        </is>
-      </c>
+      <c r="A751" s="3" t="inlineStr"/>
       <c r="B751" s="3" t="inlineStr">
         <is>
-          <t>woman</t>
-        </is>
-      </c>
-      <c r="C751" s="3" t="inlineStr">
-        <is>
-          <t>A person whose identity is female, based on societal and cultural conceptualizations of being female, usually (but not always) reflected by specific anatomical variations, chromosome combinations, and/or sex hormones.</t>
-        </is>
-      </c>
+          <t>willingness-to-pay threshold</t>
+        </is>
+      </c>
+      <c r="C751" s="3" t="inlineStr"/>
       <c r="D751" s="3" t="inlineStr"/>
       <c r="E751" s="3" t="inlineStr"/>
-      <c r="F751" s="3" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+      <c r="F751" s="3" t="inlineStr"/>
       <c r="G751" s="3" t="inlineStr"/>
       <c r="H751" s="3" t="inlineStr">
         <is>
           <t>Human being</t>
         </is>
       </c>
-      <c r="I751" s="3" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/GSSO_000369</t>
-        </is>
-      </c>
+      <c r="I751" s="3" t="inlineStr"/>
       <c r="J751" s="3" t="inlineStr"/>
-      <c r="K751" s="3" t="inlineStr">
-        <is>
-          <t>female; girl; women</t>
-        </is>
-      </c>
+      <c r="K751" s="3" t="inlineStr"/>
       <c r="L751" s="3" t="inlineStr"/>
       <c r="M751" s="3" t="inlineStr"/>
       <c r="N751" s="3" t="inlineStr"/>
       <c r="O751" s="3" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P751" s="3" t="inlineStr">
@@ -39514,11 +39494,7 @@
         </is>
       </c>
       <c r="Q751" s="3" t="inlineStr"/>
-      <c r="R751" s="3" t="inlineStr">
-        <is>
-          <t>KS; SC; JH</t>
-        </is>
-      </c>
+      <c r="R751" s="3" t="inlineStr"/>
       <c r="S751" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -39530,24 +39506,24 @@
     <row r="752">
       <c r="A752" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001187</t>
+          <t>ADDICTO:0001186</t>
         </is>
       </c>
       <c r="B752" s="3" t="inlineStr">
         <is>
-          <t>woman who has sex with men</t>
+          <t>woman</t>
         </is>
       </c>
       <c r="C752" s="3" t="inlineStr">
         <is>
-          <t>Women who engage in sexual activity with men, regardless of how they identify themselves.</t>
+          <t>A person whose identity is female, based on societal and cultural conceptualizations of being female, usually (but not always) reflected by specific anatomical variations, chromosome combinations, and/or sex hormones.</t>
         </is>
       </c>
       <c r="D752" s="3" t="inlineStr"/>
       <c r="E752" s="3" t="inlineStr"/>
       <c r="F752" s="3" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G752" s="3" t="inlineStr"/>
@@ -39558,11 +39534,15 @@
       </c>
       <c r="I752" s="3" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/GSSO_001595</t>
+          <t>http://purl.obolibrary.org/obo/GSSO_000369</t>
         </is>
       </c>
       <c r="J752" s="3" t="inlineStr"/>
-      <c r="K752" s="3" t="inlineStr"/>
+      <c r="K752" s="3" t="inlineStr">
+        <is>
+          <t>female; girl; women</t>
+        </is>
+      </c>
       <c r="L752" s="3" t="inlineStr"/>
       <c r="M752" s="3" t="inlineStr"/>
       <c r="N752" s="3" t="inlineStr"/>
@@ -39579,7 +39559,7 @@
       <c r="Q752" s="3" t="inlineStr"/>
       <c r="R752" s="3" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>KS; SC; JH</t>
         </is>
       </c>
       <c r="S752" s="3" t="inlineStr">
@@ -39593,17 +39573,17 @@
     <row r="753">
       <c r="A753" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001188</t>
+          <t>ADDICTO:0001187</t>
         </is>
       </c>
       <c r="B753" s="3" t="inlineStr">
         <is>
-          <t>woman who has sex with men and women</t>
+          <t>woman who has sex with men</t>
         </is>
       </c>
       <c r="C753" s="3" t="inlineStr">
         <is>
-          <t>Female persons who engage in sexual activity with men and women, regardless of how they identify themselves.</t>
+          <t>Women who engage in sexual activity with men, regardless of how they identify themselves.</t>
         </is>
       </c>
       <c r="D753" s="3" t="inlineStr"/>
@@ -39621,7 +39601,7 @@
       </c>
       <c r="I753" s="3" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/GSSO_004516</t>
+          <t>http://purl.obolibrary.org/obo/GSSO_001595</t>
         </is>
       </c>
       <c r="J753" s="3" t="inlineStr"/>
@@ -39656,17 +39636,17 @@
     <row r="754">
       <c r="A754" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001189</t>
+          <t>ADDICTO:0001188</t>
         </is>
       </c>
       <c r="B754" s="3" t="inlineStr">
         <is>
-          <t>woman who has sex with women</t>
+          <t>woman who has sex with men and women</t>
         </is>
       </c>
       <c r="C754" s="3" t="inlineStr">
         <is>
-          <t>Women who engage in sexual activities with other women, whether or not they identify themselves as lesbian, bisexual, heterosexual, or dispense with sexual identification altogether.</t>
+          <t>Female persons who engage in sexual activity with men and women, regardless of how they identify themselves.</t>
         </is>
       </c>
       <c r="D754" s="3" t="inlineStr"/>
@@ -39684,7 +39664,7 @@
       </c>
       <c r="I754" s="3" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/GSSO_000379</t>
+          <t>http://purl.obolibrary.org/obo/GSSO_004516</t>
         </is>
       </c>
       <c r="J754" s="3" t="inlineStr"/>
@@ -39719,17 +39699,17 @@
     <row r="755">
       <c r="A755" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000939</t>
+          <t>ADDICTO:0001189</t>
         </is>
       </c>
       <c r="B755" s="3" t="inlineStr">
         <is>
-          <t>woman who uses psychoactive drugs</t>
+          <t>woman who has sex with women</t>
         </is>
       </c>
       <c r="C755" s="3" t="inlineStr">
         <is>
-          <t>A woman who self identifies as using psychoactive substances.</t>
+          <t>Women who engage in sexual activities with other women, whether or not they identify themselves as lesbian, bisexual, heterosexual, or dispense with sexual identification altogether.</t>
         </is>
       </c>
       <c r="D755" s="3" t="inlineStr"/>
@@ -39745,7 +39725,11 @@
           <t>Human being</t>
         </is>
       </c>
-      <c r="I755" s="3" t="inlineStr"/>
+      <c r="I755" s="3" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_000379</t>
+        </is>
+      </c>
       <c r="J755" s="3" t="inlineStr"/>
       <c r="K755" s="3" t="inlineStr"/>
       <c r="L755" s="3" t="inlineStr"/>
@@ -39753,7 +39737,7 @@
       <c r="N755" s="3" t="inlineStr"/>
       <c r="O755" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="P755" s="3" t="inlineStr">
@@ -39764,7 +39748,7 @@
       <c r="Q755" s="3" t="inlineStr"/>
       <c r="R755" s="3" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="S755" s="3" t="inlineStr">
@@ -39778,17 +39762,17 @@
     <row r="756">
       <c r="A756" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000940</t>
+          <t>ADDICTO:0000939</t>
         </is>
       </c>
       <c r="B756" s="3" t="inlineStr">
         <is>
-          <t>woman with MDUI convictions</t>
+          <t>woman who uses psychoactive drugs</t>
         </is>
       </c>
       <c r="C756" s="3" t="inlineStr">
         <is>
-          <t>A woman who has convictions for driving under the influence.</t>
+          <t>A woman who self identifies as using psychoactive substances.</t>
         </is>
       </c>
       <c r="D756" s="3" t="inlineStr"/>
@@ -39837,24 +39821,24 @@
     <row r="757">
       <c r="A757" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001094</t>
+          <t>ADDICTO:0000940</t>
         </is>
       </c>
       <c r="B757" s="3" t="inlineStr">
         <is>
-          <t>years of education</t>
+          <t>woman with MDUI convictions</t>
         </is>
       </c>
       <c r="C757" s="3" t="inlineStr">
         <is>
-          <t>A data item that indicates the number of years an individual was or has been in  education.</t>
+          <t>A woman who has convictions for driving under the influence.</t>
         </is>
       </c>
       <c r="D757" s="3" t="inlineStr"/>
       <c r="E757" s="3" t="inlineStr"/>
       <c r="F757" s="3" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>woman</t>
         </is>
       </c>
       <c r="G757" s="3" t="inlineStr"/>
@@ -39896,24 +39880,24 @@
     <row r="758">
       <c r="A758" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000941</t>
+          <t>ADDICTO:0001094</t>
         </is>
       </c>
       <c r="B758" s="3" t="inlineStr">
         <is>
-          <t>young adult</t>
+          <t>years of education</t>
         </is>
       </c>
       <c r="C758" s="3" t="inlineStr">
         <is>
-          <t>A person who is in their late teenage years, or early twenties.</t>
+          <t>A data item that indicates the number of years an individual was or has been in  education.</t>
         </is>
       </c>
       <c r="D758" s="3" t="inlineStr"/>
       <c r="E758" s="3" t="inlineStr"/>
       <c r="F758" s="3" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="G758" s="3" t="inlineStr"/>
@@ -39924,34 +39908,24 @@
       </c>
       <c r="I758" s="3" t="inlineStr"/>
       <c r="J758" s="3" t="inlineStr"/>
-      <c r="K758" s="3" t="inlineStr">
-        <is>
-          <t>young person</t>
-        </is>
-      </c>
+      <c r="K758" s="3" t="inlineStr"/>
       <c r="L758" s="3" t="inlineStr"/>
-      <c r="M758" s="3" t="inlineStr">
-        <is>
-          <t>Age range should be specified.</t>
-        </is>
-      </c>
+      <c r="M758" s="3" t="inlineStr"/>
       <c r="N758" s="3" t="inlineStr"/>
       <c r="O758" s="3" t="inlineStr">
         <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="P758" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q758" s="3" t="inlineStr">
-        <is>
-          <t>Age at which 'young adult' starts can vary.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P758" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q758" s="3" t="inlineStr"/>
       <c r="R758" s="3" t="inlineStr">
         <is>
-          <t>KS; JH</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="S758" s="3" t="inlineStr">
@@ -39965,28 +39939,24 @@
     <row r="759">
       <c r="A759" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000942</t>
+          <t>ADDICTO:0000941</t>
         </is>
       </c>
       <c r="B759" s="3" t="inlineStr">
         <is>
-          <t>young adult alcohol user</t>
+          <t>young adult</t>
         </is>
       </c>
       <c r="C759" s="3" t="inlineStr">
         <is>
-          <t>A young adult who uses alcohol.</t>
+          <t>A person who is in their late teenage years, or early twenties.</t>
         </is>
       </c>
       <c r="D759" s="3" t="inlineStr"/>
-      <c r="E759" s="3" t="inlineStr">
-        <is>
-          <t>'young adult' and 'alcohol user'</t>
-        </is>
-      </c>
+      <c r="E759" s="3" t="inlineStr"/>
       <c r="F759" s="3" t="inlineStr">
         <is>
-          <t>alcohol user</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G759" s="3" t="inlineStr"/>
@@ -39997,11 +39967,15 @@
       </c>
       <c r="I759" s="3" t="inlineStr"/>
       <c r="J759" s="3" t="inlineStr"/>
-      <c r="K759" s="3" t="inlineStr"/>
+      <c r="K759" s="3" t="inlineStr">
+        <is>
+          <t>young person</t>
+        </is>
+      </c>
       <c r="L759" s="3" t="inlineStr"/>
       <c r="M759" s="3" t="inlineStr">
         <is>
-          <t>Age (or range) should be specified</t>
+          <t>Age range should be specified.</t>
         </is>
       </c>
       <c r="N759" s="3" t="inlineStr"/>
@@ -40020,7 +39994,7 @@
       </c>
       <c r="R759" s="3" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>KS; JH</t>
         </is>
       </c>
       <c r="S759" s="3" t="inlineStr">
@@ -40034,24 +40008,28 @@
     <row r="760">
       <c r="A760" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000943</t>
+          <t>ADDICTO:0000942</t>
         </is>
       </c>
       <c r="B760" s="3" t="inlineStr">
         <is>
-          <t>young adult binge drinker</t>
+          <t>young adult alcohol user</t>
         </is>
       </c>
       <c r="C760" s="3" t="inlineStr">
         <is>
-          <t>A young adult who self-reports as a binge drinker.</t>
+          <t>A young adult who uses alcohol.</t>
         </is>
       </c>
       <c r="D760" s="3" t="inlineStr"/>
-      <c r="E760" s="3" t="inlineStr"/>
+      <c r="E760" s="3" t="inlineStr">
+        <is>
+          <t>'young adult' and 'alcohol user'</t>
+        </is>
+      </c>
       <c r="F760" s="3" t="inlineStr">
         <is>
-          <t>young adult</t>
+          <t>alcohol user</t>
         </is>
       </c>
       <c r="G760" s="3" t="inlineStr"/>
@@ -40061,26 +40039,28 @@
         </is>
       </c>
       <c r="I760" s="3" t="inlineStr"/>
-      <c r="J760" s="3" t="inlineStr">
-        <is>
-          <t>'young adult' and 'binge drinker'</t>
-        </is>
-      </c>
+      <c r="J760" s="3" t="inlineStr"/>
       <c r="K760" s="3" t="inlineStr"/>
       <c r="L760" s="3" t="inlineStr"/>
-      <c r="M760" s="3" t="inlineStr"/>
+      <c r="M760" s="3" t="inlineStr">
+        <is>
+          <t>Age (or range) should be specified</t>
+        </is>
+      </c>
       <c r="N760" s="3" t="inlineStr"/>
       <c r="O760" s="3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P760" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q760" s="3" t="inlineStr"/>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P760" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q760" s="3" t="inlineStr">
+        <is>
+          <t>Age at which 'young adult' starts can vary.</t>
+        </is>
+      </c>
       <c r="R760" s="3" t="inlineStr">
         <is>
           <t>KS</t>
@@ -40095,13 +40075,21 @@
       <c r="U760" s="3" t="inlineStr"/>
     </row>
     <row r="761">
-      <c r="A761" s="3" t="inlineStr"/>
+      <c r="A761" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000943</t>
+        </is>
+      </c>
       <c r="B761" s="3" t="inlineStr">
         <is>
-          <t>young adult opioid use disorder population</t>
-        </is>
-      </c>
-      <c r="C761" s="3" t="inlineStr"/>
+          <t>young adult binge drinker</t>
+        </is>
+      </c>
+      <c r="C761" s="3" t="inlineStr">
+        <is>
+          <t>A young adult who self-reports as a binge drinker.</t>
+        </is>
+      </c>
       <c r="D761" s="3" t="inlineStr"/>
       <c r="E761" s="3" t="inlineStr"/>
       <c r="F761" s="3" t="inlineStr">
@@ -40116,7 +40104,11 @@
         </is>
       </c>
       <c r="I761" s="3" t="inlineStr"/>
-      <c r="J761" s="3" t="inlineStr"/>
+      <c r="J761" s="3" t="inlineStr">
+        <is>
+          <t>'young adult' and 'binge drinker'</t>
+        </is>
+      </c>
       <c r="K761" s="3" t="inlineStr"/>
       <c r="L761" s="3" t="inlineStr"/>
       <c r="M761" s="3" t="inlineStr"/>
@@ -40146,30 +40138,18 @@
       <c r="U761" s="3" t="inlineStr"/>
     </row>
     <row r="762">
-      <c r="A762" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001090</t>
-        </is>
-      </c>
+      <c r="A762" s="3" t="inlineStr"/>
       <c r="B762" s="3" t="inlineStr">
         <is>
-          <t>young adult opioid user</t>
-        </is>
-      </c>
-      <c r="C762" s="3" t="inlineStr">
-        <is>
-          <t>A young adult who uses opioids.</t>
-        </is>
-      </c>
+          <t>young adult opioid use disorder population</t>
+        </is>
+      </c>
+      <c r="C762" s="3" t="inlineStr"/>
       <c r="D762" s="3" t="inlineStr"/>
-      <c r="E762" s="3" t="inlineStr">
-        <is>
-          <t>'young adult' and 'opioid user'</t>
-        </is>
-      </c>
+      <c r="E762" s="3" t="inlineStr"/>
       <c r="F762" s="3" t="inlineStr">
         <is>
-          <t>opioid user</t>
+          <t>young adult</t>
         </is>
       </c>
       <c r="G762" s="3" t="inlineStr"/>
@@ -40182,25 +40162,19 @@
       <c r="J762" s="3" t="inlineStr"/>
       <c r="K762" s="3" t="inlineStr"/>
       <c r="L762" s="3" t="inlineStr"/>
-      <c r="M762" s="3" t="inlineStr">
-        <is>
-          <t>Age should be specified</t>
-        </is>
-      </c>
+      <c r="M762" s="3" t="inlineStr"/>
       <c r="N762" s="3" t="inlineStr"/>
       <c r="O762" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="P762" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q762" s="3" t="inlineStr">
-        <is>
-          <t>Age at which 'young adult' starts can vary.</t>
-        </is>
-      </c>
+      <c r="P762" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q762" s="3" t="inlineStr"/>
       <c r="R762" s="3" t="inlineStr">
         <is>
           <t>KS</t>
@@ -40215,75 +40189,144 @@
       <c r="U762" s="3" t="inlineStr"/>
     </row>
     <row r="763">
-      <c r="A763" s="2" t="inlineStr">
+      <c r="A763" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001090</t>
+        </is>
+      </c>
+      <c r="B763" s="3" t="inlineStr">
+        <is>
+          <t>young adult opioid user</t>
+        </is>
+      </c>
+      <c r="C763" s="3" t="inlineStr">
+        <is>
+          <t>A young adult who uses opioids.</t>
+        </is>
+      </c>
+      <c r="D763" s="3" t="inlineStr"/>
+      <c r="E763" s="3" t="inlineStr">
+        <is>
+          <t>'young adult' and 'opioid user'</t>
+        </is>
+      </c>
+      <c r="F763" s="3" t="inlineStr">
+        <is>
+          <t>opioid user</t>
+        </is>
+      </c>
+      <c r="G763" s="3" t="inlineStr"/>
+      <c r="H763" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I763" s="3" t="inlineStr"/>
+      <c r="J763" s="3" t="inlineStr"/>
+      <c r="K763" s="3" t="inlineStr"/>
+      <c r="L763" s="3" t="inlineStr"/>
+      <c r="M763" s="3" t="inlineStr">
+        <is>
+          <t>Age should be specified</t>
+        </is>
+      </c>
+      <c r="N763" s="3" t="inlineStr"/>
+      <c r="O763" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P763" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q763" s="3" t="inlineStr">
+        <is>
+          <t>Age at which 'young adult' starts can vary.</t>
+        </is>
+      </c>
+      <c r="R763" s="3" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="S763" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T763" s="3" t="inlineStr"/>
+      <c r="U763" s="3" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000410</t>
         </is>
       </c>
-      <c r="B763" s="2" t="inlineStr">
+      <c r="B764" s="2" t="inlineStr">
         <is>
           <t>young person</t>
         </is>
       </c>
-      <c r="C763" s="2" t="inlineStr">
+      <c r="C764" s="2" t="inlineStr">
         <is>
           <t>A person whose age is less than that of an adult.</t>
         </is>
       </c>
-      <c r="D763" s="2" t="inlineStr">
+      <c r="D764" s="2" t="inlineStr">
         <is>
           <t>A person who has not reached adulthood, from infancy to adolescence.</t>
         </is>
       </c>
-      <c r="E763" s="2" t="inlineStr"/>
-      <c r="F763" s="2" t="inlineStr">
+      <c r="E764" s="2" t="inlineStr"/>
+      <c r="F764" s="2" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="G763" s="2" t="inlineStr">
+      <c r="G764" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="H763" s="2" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I763" s="2" t="inlineStr"/>
-      <c r="J763" s="2" t="inlineStr"/>
-      <c r="K763" s="2" t="inlineStr"/>
-      <c r="L763" s="2" t="inlineStr"/>
-      <c r="M763" s="2" t="inlineStr">
+      <c r="H764" s="2" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I764" s="2" t="inlineStr"/>
+      <c r="J764" s="2" t="inlineStr"/>
+      <c r="K764" s="2" t="inlineStr"/>
+      <c r="L764" s="2" t="inlineStr"/>
+      <c r="M764" s="2" t="inlineStr">
         <is>
           <t>This class is different from 'youth' and is intended to cover any person from birth up to adulthood. It includes, infant, child, and adolescent.</t>
         </is>
       </c>
-      <c r="N763" s="2" t="inlineStr"/>
-      <c r="O763" s="2" t="n">
+      <c r="N764" s="2" t="inlineStr"/>
+      <c r="O764" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P763" s="2" t="n">
+      <c r="P764" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q763" s="2" t="inlineStr">
+      <c r="Q764" s="2" t="inlineStr">
         <is>
           <t>Unclear age boundaries.</t>
         </is>
       </c>
-      <c r="R763" s="2" t="inlineStr">
+      <c r="R764" s="2" t="inlineStr">
         <is>
           <t>All; KS; JH; RW</t>
         </is>
       </c>
-      <c r="S763" s="2" t="inlineStr">
+      <c r="S764" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T763" s="2" t="inlineStr"/>
-      <c r="U763" s="2" t="inlineStr"/>
+      <c r="T764" s="2" t="inlineStr"/>
+      <c r="U764" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
